--- a/floyd.xlsx
+++ b/floyd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\Projects\PDC-Project\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\Projects\PDC-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1C33F6-1AC2-4901-8EE1-A9B23CD330BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472DF15-786F-41C2-AB87-0B137EECF57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -903,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I16" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,9 +914,10 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -968,7 +969,7 @@
         <v>4789</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>250</v>
       </c>
@@ -994,7 +995,7 @@
         <v>59461</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -1019,8 +1020,11 @@
       <c r="H4">
         <v>438800</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>3560849</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1500</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>11766750</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>26706256</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2500</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>52250589</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3000</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>89849372</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3500</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>142651805</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4000</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>208960528</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4500</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>296636370</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5000</v>
       </c>
@@ -1254,95 +1258,84 @@
         <v>405033370</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B15">
-        <f>AVERAGE(B2:B13)</f>
         <v>162313588.67166665</v>
       </c>
       <c r="C15">
-        <f>AVERAGE(C2:C13)</f>
         <v>132205354.75</v>
       </c>
       <c r="D15">
-        <f>AVERAGE(D2:D13)</f>
         <v>120705098.83333333</v>
       </c>
       <c r="E15">
-        <f>AVERAGE(E2:E13)</f>
         <v>116027531.75</v>
       </c>
       <c r="F15">
-        <f>AVERAGE(F2:F13)</f>
         <v>106089692.91666667</v>
       </c>
       <c r="G15">
-        <f>AVERAGE(G2:G13)</f>
         <v>102937235.91666667</v>
       </c>
       <c r="H15">
-        <f>AVERAGE(H2:H13)</f>
         <v>103159911.58333333</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16">
-        <f>B15/C15</f>
         <v>1.2277383845654455</v>
       </c>
       <c r="D16">
-        <f>B15/D15</f>
         <v>1.3447119487121693</v>
       </c>
       <c r="E16">
-        <f>B15/E15</f>
         <v>1.3989230506204116</v>
       </c>
       <c r="F16">
-        <f>B15/F15</f>
         <v>1.5299656753570188</v>
       </c>
       <c r="G16">
-        <f>B15/G15</f>
         <v>1.5768209358474361</v>
       </c>
       <c r="H16">
-        <f>B15/H15</f>
         <v>1.5734172914693567</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="I16">
+        <f>AVERAGE(C16:H16)</f>
+        <v>1.4419295477619729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17">
-        <f>(C16/2) * 100</f>
         <v>61.386919228272276</v>
       </c>
       <c r="D17">
-        <f>(D16/4) * 100</f>
         <v>33.617798717804234</v>
       </c>
       <c r="E17">
-        <f>(E16/6) * 100</f>
         <v>23.315384177006859</v>
       </c>
       <c r="F17">
-        <f>(F16/8) * 100</f>
         <v>19.124570941962734</v>
       </c>
       <c r="G17">
-        <f>(G16/10) * 100</f>
         <v>15.768209358474362</v>
       </c>
       <c r="H17">
-        <f>(H16/12) * 100</f>
         <v>13.111810762244639</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(C17:H17)</f>
+        <v>27.720782197627518</v>
       </c>
     </row>
   </sheetData>
